--- a/Excel-Test-job.xlsx
+++ b/Excel-Test-job.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVIER\Documents\Ejercicios_Excel\excel-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE615D6D-06B1-415C-939B-D38771D79E7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53518B4A-273D-4BE4-9326-6AE82B78C75A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20724" windowHeight="7608" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -1546,9 +1546,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1559,6 +1556,9 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10765,7 +10765,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6FEF42F1-211D-4108-8418-AF52A726CA62}" name="TablaDinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6FEF42F1-211D-4108-8418-AF52A726CA62}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:K38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0"/>
@@ -11315,8 +11315,8 @@
     <col min="6" max="16384" width="13" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="41" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:5" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>158</v>
       </c>
     </row>
@@ -32483,8 +32483,8 @@
     <col min="6" max="16384" width="13" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="41" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:8" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>158</v>
       </c>
     </row>
@@ -61370,7 +61370,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>231</v>
       </c>
       <c r="B1" t="s">
@@ -61378,15 +61378,15 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="42" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="42" t="s">
         <v>233</v>
       </c>
       <c r="B4" t="s">
@@ -61421,716 +61421,716 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="42">
+      <c r="A5" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="41">
         <v>10</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41">
         <v>23.909999999999997</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="41">
         <v>40.17</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="41">
         <v>31.34</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="41">
         <v>6.25</v>
       </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42">
+      <c r="H5" s="41"/>
+      <c r="I5" s="41">
         <v>14.25</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="41">
         <v>32.33</v>
       </c>
-      <c r="K5" s="42">
+      <c r="K5" s="41">
         <v>158.25</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="41">
         <v>10</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42">
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41">
         <v>1.5</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="41">
         <v>3</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="41">
         <v>2.5</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41">
         <v>3.75</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="41">
         <v>19.170000000000002</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="41">
         <v>29.92</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41">
         <v>4.5</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="41">
         <v>19</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42">
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41">
         <v>10.5</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="41">
         <v>2</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="41">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41">
         <v>32.67</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="41">
         <v>9.84</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42">
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41">
         <v>9.66</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="41">
         <v>52.17</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41">
         <v>22.409999999999997</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42">
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41">
         <v>6.25</v>
       </c>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42">
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41">
         <v>1.5</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="41">
         <v>30.159999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41">
         <v>6</v>
       </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42">
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42">
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41">
         <v>6</v>
       </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42">
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41">
         <v>10.5</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42">
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41">
         <v>10.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41">
         <v>1.5</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42">
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41">
         <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42">
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41">
         <v>9</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42">
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42">
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41">
         <v>13</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42">
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42">
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41">
         <v>13</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42">
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42">
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41">
         <v>1</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42">
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42">
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41">
         <v>0.5</v>
       </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42">
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41">
         <v>0.5</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42">
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42">
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41">
         <v>3</v>
       </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42">
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42">
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41">
         <v>3</v>
       </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42">
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="42">
+      <c r="B23" s="41">
         <v>17.41</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42">
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41">
         <v>33.5</v>
       </c>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42">
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41">
         <v>50.91</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42">
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41">
         <v>33.5</v>
       </c>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42">
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41">
         <v>33.5</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="42">
+      <c r="B25" s="41">
         <v>17.41</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42">
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41">
         <v>17.41</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42">
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41">
         <v>25.25</v>
       </c>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42">
+      <c r="J26" s="41"/>
+      <c r="K26" s="41">
         <v>25.25</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42">
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41">
         <v>25.25</v>
       </c>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42">
+      <c r="J27" s="41"/>
+      <c r="K27" s="41">
         <v>25.25</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42">
+      <c r="B28" s="41"/>
+      <c r="C28" s="41">
         <v>4.42</v>
       </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42">
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41">
         <v>22</v>
       </c>
-      <c r="H28" s="42">
+      <c r="H28" s="41">
         <v>3</v>
       </c>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42">
+      <c r="I28" s="41"/>
+      <c r="J28" s="41">
         <v>7</v>
       </c>
-      <c r="K28" s="42">
+      <c r="K28" s="41">
         <v>36.42</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42">
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41">
         <v>22</v>
       </c>
-      <c r="H29" s="42">
+      <c r="H29" s="41">
         <v>3</v>
       </c>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42">
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42">
+      <c r="B30" s="41"/>
+      <c r="C30" s="41">
         <v>4.42</v>
       </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42">
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41">
         <v>3</v>
       </c>
-      <c r="K30" s="42">
+      <c r="K30" s="41">
         <v>7.42</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42">
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41">
         <v>4</v>
       </c>
-      <c r="K31" s="42">
+      <c r="K31" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42">
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41">
         <v>6.5</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42">
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41">
         <v>20.5</v>
       </c>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42">
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41">
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42">
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41">
         <v>3.5</v>
       </c>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42">
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41">
         <v>17.5</v>
       </c>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42">
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41">
         <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42">
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41">
         <v>3</v>
       </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42">
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41">
         <v>3</v>
       </c>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42">
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42">
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41">
         <v>16.579999999999998</v>
       </c>
-      <c r="K35" s="42">
+      <c r="K35" s="41">
         <v>16.579999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42">
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41">
         <v>2.58</v>
       </c>
-      <c r="K36" s="42">
+      <c r="K36" s="41">
         <v>2.58</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42">
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41">
         <v>14</v>
       </c>
-      <c r="K37" s="42">
+      <c r="K37" s="41">
         <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="B38" s="42">
+      <c r="B38" s="41">
         <v>27.41</v>
       </c>
-      <c r="C38" s="42">
+      <c r="C38" s="41">
         <v>4.42</v>
       </c>
-      <c r="D38" s="42">
+      <c r="D38" s="41">
         <v>46.41</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="41">
         <v>51.67</v>
       </c>
-      <c r="F38" s="42">
+      <c r="F38" s="41">
         <v>31.34</v>
       </c>
-      <c r="G38" s="42">
+      <c r="G38" s="41">
         <v>28.25</v>
       </c>
-      <c r="H38" s="42">
+      <c r="H38" s="41">
         <v>63</v>
       </c>
-      <c r="I38" s="42">
+      <c r="I38" s="41">
         <v>39.5</v>
       </c>
-      <c r="J38" s="42">
+      <c r="J38" s="41">
         <v>55.91</v>
       </c>
-      <c r="K38" s="42">
+      <c r="K38" s="41">
         <v>347.90999999999997</v>
       </c>
     </row>
@@ -62152,8 +62152,8 @@
     <col min="2" max="2" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="41" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:6" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>159</v>
       </c>
     </row>
@@ -62712,8 +62712,8 @@
     <col min="2" max="2" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="41" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:7" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>159</v>
       </c>
     </row>
@@ -63614,8 +63614,8 @@
     <col min="1" max="16384" width="13" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="41" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:9" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>160</v>
       </c>
     </row>
@@ -64583,7 +64583,7 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -64591,8 +64591,8 @@
     <col min="1" max="16384" width="13" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="41" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:9" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>160</v>
       </c>
     </row>
@@ -64790,7 +64790,7 @@
       <c r="J19" s="35">
         <v>1200</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K19" s="45">
         <f>J19-I19</f>
         <v>350.50150000000008</v>
       </c>
@@ -64831,7 +64831,7 @@
       <c r="J20" s="35">
         <v>480</v>
       </c>
-      <c r="K20" s="46">
+      <c r="K20" s="45">
         <f t="shared" ref="K20:K22" si="3">J20-I20</f>
         <v>-69.800399999999968</v>
       </c>
@@ -64872,7 +64872,7 @@
       <c r="J21" s="35">
         <v>900</v>
       </c>
-      <c r="K21" s="46">
+      <c r="K21" s="45">
         <f t="shared" si="3"/>
         <v>6.1211000000000695</v>
       </c>
@@ -64913,7 +64913,7 @@
       <c r="J22" s="35">
         <v>800</v>
       </c>
-      <c r="K22" s="46">
+      <c r="K22" s="45">
         <f t="shared" si="3"/>
         <v>183.63380000000006</v>
       </c>
